--- a/Paper_resultados/Parametric_model/Survival_rate/Output/Total/Age/Outcome_g2.xlsx
+++ b/Paper_resultados/Parametric_model/Survival_rate/Output/Total/Age/Outcome_g2.xlsx
@@ -387,10 +387,10 @@
         <v>0.9090223151970949</v>
       </c>
       <c r="C2">
-        <v>0.8972578142362052</v>
+        <v>0.8971247825105778</v>
       </c>
       <c r="D2">
-        <v>0.9203986939478638</v>
+        <v>0.9197820816801586</v>
       </c>
     </row>
     <row r="3">
@@ -401,10 +401,10 @@
         <v>0.832839754820292</v>
       </c>
       <c r="C3">
-        <v>0.8128288804022394</v>
+        <v>0.8126266953362704</v>
       </c>
       <c r="D3">
-        <v>0.8524711120232085</v>
+        <v>0.8512590892885307</v>
       </c>
     </row>
     <row r="4">
@@ -415,10 +415,10 @@
         <v>0.7685632623113976</v>
       </c>
       <c r="C4">
-        <v>0.7425482800299215</v>
+        <v>0.7425063532679597</v>
       </c>
       <c r="D4">
-        <v>0.7941504042271759</v>
+        <v>0.7926889049275229</v>
       </c>
     </row>
     <row r="5">
@@ -429,10 +429,10 @@
         <v>0.7139554803031154</v>
       </c>
       <c r="C5">
-        <v>0.6833428736591377</v>
+        <v>0.6838220640019288</v>
       </c>
       <c r="D5">
-        <v>0.7438066689446545</v>
+        <v>0.7422349058032773</v>
       </c>
     </row>
     <row r="6">
@@ -440,13 +440,13 @@
         <v>5</v>
       </c>
       <c r="B6">
-        <v>0.6672664546811147</v>
+        <v>0.6672664546811148</v>
       </c>
       <c r="C6">
-        <v>0.6337231664701188</v>
+        <v>0.6343786487394392</v>
       </c>
       <c r="D6">
-        <v>0.700116622382258</v>
+        <v>0.6987908319406669</v>
       </c>
     </row>
     <row r="7">
@@ -457,10 +457,10 @@
         <v>0.6271146018144715</v>
       </c>
       <c r="C7">
-        <v>0.5915768180576155</v>
+        <v>0.591995898535953</v>
       </c>
       <c r="D7">
-        <v>0.6620498322429692</v>
+        <v>0.6605717329158735</v>
       </c>
     </row>
     <row r="8">
@@ -471,10 +471,10 @@
         <v>0.5923995156547204</v>
       </c>
       <c r="C8">
-        <v>0.5554143926873183</v>
+        <v>0.5558047588733271</v>
       </c>
       <c r="D8">
-        <v>0.6289801848923643</v>
+        <v>0.6272914545507864</v>
       </c>
     </row>
     <row r="9">
@@ -485,10 +485,10 @@
         <v>0.5622374304653797</v>
       </c>
       <c r="C9">
-        <v>0.5244364822961654</v>
+        <v>0.5247439588204366</v>
       </c>
       <c r="D9">
-        <v>0.5994865346401219</v>
+        <v>0.5976139564099896</v>
       </c>
     </row>
     <row r="10">
@@ -499,10 +499,10 @@
         <v>0.5359129801830868</v>
       </c>
       <c r="C10">
-        <v>0.4977635198711046</v>
+        <v>0.4983584500551801</v>
       </c>
       <c r="D10">
-        <v>0.5737842154967089</v>
+        <v>0.5718147670247357</v>
       </c>
     </row>
     <row r="11">
@@ -513,10 +513,10 @@
         <v>0.5128428016069813</v>
       </c>
       <c r="C11">
-        <v>0.4746170163228712</v>
+        <v>0.4750154045392584</v>
       </c>
       <c r="D11">
-        <v>0.5506697159260983</v>
+        <v>0.5486653531852319</v>
       </c>
     </row>
     <row r="12">
@@ -524,13 +524,13 @@
         <v>11</v>
       </c>
       <c r="B12">
-        <v>0.4925478298089614</v>
+        <v>0.4925478298089613</v>
       </c>
       <c r="C12">
-        <v>0.4542302304833483</v>
+        <v>0.455266362415196</v>
       </c>
       <c r="D12">
-        <v>0.531153664737581</v>
+        <v>0.5289753308491144</v>
       </c>
     </row>
     <row r="13">
@@ -538,13 +538,13 @@
         <v>12</v>
       </c>
       <c r="B13">
-        <v>0.474632032277766</v>
+        <v>0.4746320322777658</v>
       </c>
       <c r="C13">
-        <v>0.4361668249429124</v>
+        <v>0.4376891083665949</v>
       </c>
       <c r="D13">
-        <v>0.5129909329031186</v>
+        <v>0.5115752281054643</v>
       </c>
     </row>
     <row r="14">
@@ -555,10 +555,10 @@
         <v>0.4587659547968974</v>
       </c>
       <c r="C14">
-        <v>0.4207636953731395</v>
+        <v>0.4218876761366206</v>
       </c>
       <c r="D14">
-        <v>0.4966793744234682</v>
+        <v>0.4955575564136658</v>
       </c>
     </row>
     <row r="15">
@@ -566,13 +566,13 @@
         <v>14</v>
       </c>
       <c r="B15">
-        <v>0.4446738934837429</v>
+        <v>0.4446738934837428</v>
       </c>
       <c r="C15">
-        <v>0.4069637744667609</v>
+        <v>0.407647663132007</v>
       </c>
       <c r="D15">
-        <v>0.4825229488185277</v>
+        <v>0.4812348569706433</v>
       </c>
     </row>
     <row r="16">
@@ -583,10 +583,10 @@
         <v>0.4321238214486778</v>
       </c>
       <c r="C16">
-        <v>0.394636258779117</v>
+        <v>0.3949563141524006</v>
       </c>
       <c r="D16">
-        <v>0.4705574537806849</v>
+        <v>0.4683683986195139</v>
       </c>
     </row>
     <row r="17">
@@ -594,13 +594,13 @@
         <v>16</v>
       </c>
       <c r="B17">
-        <v>0.4209194239897869</v>
+        <v>0.4209194239897868</v>
       </c>
       <c r="C17">
-        <v>0.3831044132814241</v>
+        <v>0.3837548360975112</v>
       </c>
       <c r="D17">
-        <v>0.4592034284027294</v>
+        <v>0.4568443918027592</v>
       </c>
     </row>
     <row r="18">
@@ -611,10 +611,10 @@
         <v>0.4108937595256502</v>
       </c>
       <c r="C18">
-        <v>0.3732275887186167</v>
+        <v>0.3733415513071138</v>
       </c>
       <c r="D18">
-        <v>0.4490755384250761</v>
+        <v>0.4464853003180151</v>
       </c>
     </row>
     <row r="19">
@@ -625,10 +625,10 @@
         <v>0.4019041827213153</v>
       </c>
       <c r="C19">
-        <v>0.3647323361973033</v>
+        <v>0.3640296964389892</v>
       </c>
       <c r="D19">
-        <v>0.4391027430220626</v>
+        <v>0.4373592252574932</v>
       </c>
     </row>
     <row r="20">
@@ -636,13 +636,13 @@
         <v>19</v>
       </c>
       <c r="B20">
-        <v>0.3938282540546765</v>
+        <v>0.3938282540546766</v>
       </c>
       <c r="C20">
-        <v>0.3570786336798373</v>
+        <v>0.3556796603725879</v>
       </c>
       <c r="D20">
-        <v>0.4311499755822346</v>
+        <v>0.4287351722782844</v>
       </c>
     </row>
     <row r="21">
@@ -653,10 +653,10 @@
         <v>0.3865604251979242</v>
       </c>
       <c r="C21">
-        <v>0.3502911026110382</v>
+        <v>0.3484394258424802</v>
       </c>
       <c r="D21">
-        <v>0.4241813280819981</v>
+        <v>0.422046905593858</v>
       </c>
     </row>
     <row r="22">
@@ -667,10 +667,10 @@
         <v>0.380009338257686</v>
       </c>
       <c r="C22">
-        <v>0.3442100195796274</v>
+        <v>0.3420683858531907</v>
       </c>
       <c r="D22">
-        <v>0.4173389063681581</v>
+        <v>0.4151194467820212</v>
       </c>
     </row>
     <row r="23">
@@ -681,10 +681,10 @@
         <v>0.3740956135432256</v>
       </c>
       <c r="C23">
-        <v>0.338348968377937</v>
+        <v>0.3367602058140226</v>
       </c>
       <c r="D23">
-        <v>0.4111554783168067</v>
+        <v>0.4086381758744945</v>
       </c>
     </row>
     <row r="24">
@@ -695,10 +695,10 @@
         <v>0.3687500282806173</v>
       </c>
       <c r="C24">
-        <v>0.3320563417765037</v>
+        <v>0.3316283972251199</v>
       </c>
       <c r="D24">
-        <v>0.40583065586376</v>
+        <v>0.4031783071516437</v>
       </c>
     </row>
     <row r="25">
@@ -706,13 +706,13 @@
         <v>24</v>
       </c>
       <c r="B25">
-        <v>0.3639120098497532</v>
+        <v>0.3639120098497534</v>
       </c>
       <c r="C25">
-        <v>0.3268724389336564</v>
+        <v>0.327038342255182</v>
       </c>
       <c r="D25">
-        <v>0.400837331991851</v>
+        <v>0.3984626372962711</v>
       </c>
     </row>
     <row r="26">
@@ -723,10 +723,10 @@
         <v>0.3595283833553184</v>
       </c>
       <c r="C26">
-        <v>0.3227458933451569</v>
+        <v>0.3229683687147928</v>
       </c>
       <c r="D26">
-        <v>0.3963769639723905</v>
+        <v>0.3942600912225846</v>
       </c>
     </row>
     <row r="27">
@@ -734,13 +734,13 @@
         <v>26</v>
       </c>
       <c r="B27">
-        <v>0.3555523258728326</v>
+        <v>0.3555523258728327</v>
       </c>
       <c r="C27">
-        <v>0.3190209241507158</v>
+        <v>0.3190783241702697</v>
       </c>
       <c r="D27">
-        <v>0.3922658064870196</v>
+        <v>0.3903654773767701</v>
       </c>
     </row>
     <row r="28">
@@ -748,13 +748,13 @@
         <v>27</v>
       </c>
       <c r="B28">
-        <v>0.3519424894369962</v>
+        <v>0.3519424894369961</v>
       </c>
       <c r="C28">
-        <v>0.3156146484259056</v>
+        <v>0.3152630257727591</v>
       </c>
       <c r="D28">
-        <v>0.3887946640744659</v>
+        <v>0.3868533890160225</v>
       </c>
     </row>
     <row r="29">
@@ -762,13 +762,13 @@
         <v>28</v>
       </c>
       <c r="B29">
-        <v>0.3486622624307192</v>
+        <v>0.3486622624307191</v>
       </c>
       <c r="C29">
-        <v>0.3124067207086101</v>
+        <v>0.3117989577803505</v>
       </c>
       <c r="D29">
-        <v>0.3854455576948156</v>
+        <v>0.3838708480110637</v>
       </c>
     </row>
     <row r="30">
@@ -776,13 +776,13 @@
         <v>29</v>
       </c>
       <c r="B30">
-        <v>0.3456791449892513</v>
+        <v>0.3456791449892515</v>
       </c>
       <c r="C30">
-        <v>0.309829261535866</v>
+        <v>0.3084314110448401</v>
       </c>
       <c r="D30">
-        <v>0.3822460414831956</v>
+        <v>0.3805749489510276</v>
       </c>
     </row>
     <row r="31">
@@ -793,10 +793,10 @@
         <v>0.3429642187305945</v>
       </c>
       <c r="C31">
-        <v>0.3071699395201004</v>
+        <v>0.3060278216679467</v>
       </c>
       <c r="D31">
-        <v>0.3793230678006985</v>
+        <v>0.3775913964713172</v>
       </c>
     </row>
     <row r="32">
@@ -807,10 +807,10 @@
         <v>0.3404916948451644</v>
       </c>
       <c r="C32">
-        <v>0.3044120866614051</v>
+        <v>0.3036906888518494</v>
       </c>
       <c r="D32">
-        <v>0.3766647641022285</v>
+        <v>0.3750793781179427</v>
       </c>
     </row>
     <row r="33">
@@ -821,10 +821,10 @@
         <v>0.3382385275406583</v>
       </c>
       <c r="C33">
-        <v>0.301945894523356</v>
+        <v>0.3016353999090092</v>
       </c>
       <c r="D33">
-        <v>0.3744941885488541</v>
+        <v>0.3729953113507635</v>
       </c>
     </row>
     <row r="34">
@@ -835,10 +835,10 @@
         <v>0.3361840822075878</v>
       </c>
       <c r="C34">
-        <v>0.2999328174694695</v>
+        <v>0.299777555256703</v>
       </c>
       <c r="D34">
-        <v>0.3728177569836676</v>
+        <v>0.3711044596699966</v>
       </c>
     </row>
     <row r="35">
@@ -849,10 +849,10 @@
         <v>0.334309849574065</v>
       </c>
       <c r="C35">
-        <v>0.2976357324925701</v>
+        <v>0.2979489511249988</v>
       </c>
       <c r="D35">
-        <v>0.3711610909753965</v>
+        <v>0.369393536032611</v>
       </c>
     </row>
     <row r="36">
@@ -863,10 +863,10 @@
         <v>0.3325991986533314</v>
       </c>
       <c r="C36">
-        <v>0.2958232453986264</v>
+        <v>0.2962270095864155</v>
       </c>
       <c r="D36">
-        <v>0.3692925889149538</v>
+        <v>0.3678664470830053</v>
       </c>
     </row>
     <row r="37">
@@ -874,13 +874,13 @@
         <v>36</v>
       </c>
       <c r="B37">
-        <v>0.3310371625304338</v>
+        <v>0.3310371625304339</v>
       </c>
       <c r="C37">
-        <v>0.2940932137578246</v>
+        <v>0.2946692058340588</v>
       </c>
       <c r="D37">
-        <v>0.3675892161225186</v>
+        <v>0.3665558917601686</v>
       </c>
     </row>
     <row r="38">
@@ -891,10 +891,10 @@
         <v>0.3296102520448217</v>
       </c>
       <c r="C38">
-        <v>0.2928291330379494</v>
+        <v>0.2931037554667104</v>
       </c>
       <c r="D38">
-        <v>0.3662229927950943</v>
+        <v>0.3651710998551696</v>
       </c>
     </row>
     <row r="39">
@@ -905,10 +905,10 @@
         <v>0.3283062932500607</v>
       </c>
       <c r="C39">
-        <v>0.2916855181535639</v>
+        <v>0.2919079028975835</v>
       </c>
       <c r="D39">
-        <v>0.3649855535274568</v>
+        <v>0.3639333536441638</v>
       </c>
     </row>
     <row r="40">
@@ -919,10 +919,10 @@
         <v>0.3271142852069731</v>
       </c>
       <c r="C40">
-        <v>0.2903427858363039</v>
+        <v>0.2908248030583327</v>
       </c>
       <c r="D40">
-        <v>0.3638560974267753</v>
+        <v>0.3628608054939622</v>
       </c>
     </row>
     <row r="41">
@@ -930,13 +930,13 @@
         <v>40</v>
       </c>
       <c r="B41">
-        <v>0.3260242752213207</v>
+        <v>0.3260242752213208</v>
       </c>
       <c r="C41">
-        <v>0.2890876261583277</v>
+        <v>0.2897779876731053</v>
       </c>
       <c r="D41">
-        <v>0.3628205142099926</v>
+        <v>0.3618832239208111</v>
       </c>
     </row>
     <row r="42">
@@ -947,10 +947,10 @@
         <v>0.3250272490946162</v>
       </c>
       <c r="C42">
-        <v>0.2881370063870978</v>
+        <v>0.2887188566405427</v>
       </c>
       <c r="D42">
-        <v>0.3618712967885405</v>
+        <v>0.3609919837001631</v>
       </c>
     </row>
     <row r="43">
@@ -958,13 +958,13 @@
         <v>42</v>
       </c>
       <c r="B43">
-        <v>0.3241150343351165</v>
+        <v>0.3241150343351163</v>
       </c>
       <c r="C43">
-        <v>0.2873066298304529</v>
+        <v>0.2877521212731215</v>
       </c>
       <c r="D43">
-        <v>0.3610030375828631</v>
+        <v>0.360178328517107</v>
       </c>
     </row>
     <row r="44">
@@ -975,10 +975,10 @@
         <v>0.3142833968543297</v>
       </c>
       <c r="C44">
-        <v>0.2758098374241261</v>
+        <v>0.276538956931996</v>
       </c>
       <c r="D44">
-        <v>0.3512416122289302</v>
+        <v>0.3517252388298802</v>
       </c>
     </row>
   </sheetData>
